--- a/List.xlsx
+++ b/List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>courseName</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
   </si>
   <si>
     <r>
@@ -1246,45 +1249,64 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.5909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:1">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:1">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:1">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:1">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:1">
+    <row r="6" ht="15" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/List.xlsx
+++ b/List.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
-    <sheet name="StudentsInformation" sheetId="1" r:id="rId1"/>
-    <sheet name="TeachersInformation" sheetId="2" r:id="rId2"/>
-    <sheet name="CoursesInformation" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -807,11 +807,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1133,57 +1136,51 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="13.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="15.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="10.9" customWidth="1"/>
-    <col min="4" max="4" width="11.7636363636364" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>29</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>31</v>
       </c>
     </row>
@@ -1199,43 +1196,37 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="13.0545454545455" customWidth="1"/>
-    <col min="2" max="2" width="14.9909090909091" customWidth="1"/>
-    <col min="3" max="3" width="10.6818181818182" customWidth="1"/>
-    <col min="4" max="4" width="11.5909090909091" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>123</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>123</v>
       </c>
     </row>
@@ -1251,15 +1242,11 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="10.5909090909091" customWidth="1"/>
-    <col min="2" max="2" width="11.1363636363636" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1273,7 +1260,7 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1281,7 +1268,7 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1289,7 +1276,7 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1297,7 +1284,7 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1305,7 +1292,7 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/List.xlsx
+++ b/List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="25600" windowHeight="12200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,56 +123,56 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="13.5"/>
         <color rgb="FF067D17"/>
-        <rFont val="宋体"/>
+        <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>乒乓球</t>
+      <t>table tennis</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="13.5"/>
         <color rgb="FF067D17"/>
-        <rFont val="宋体"/>
+        <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>篮球</t>
+      <t>basketball</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="13.5"/>
         <color rgb="FF067D17"/>
-        <rFont val="宋体"/>
+        <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>游泳</t>
+      <t>swimming</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="13.5"/>
         <color rgb="FF067D17"/>
-        <rFont val="宋体"/>
+        <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>足球</t>
+      <t>football</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="13.5"/>
         <color rgb="FF067D17"/>
-        <rFont val="宋体"/>
+        <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>网球</t>
+      <t>tennis</t>
     </r>
   </si>
 </sst>
@@ -195,9 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13.5"/>
       <color rgb="FF067D17"/>
-      <name val="宋体"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1136,11 +1136,17 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.4363636363636" customWidth="1"/>
+    <col min="2" max="2" width="15.0454545454545" customWidth="1"/>
+    <col min="3" max="3" width="16.2454545454545" customWidth="1"/>
+    <col min="4" max="4" width="16.6272727272727" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -1197,10 +1203,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.4181818181818" customWidth="1"/>
+    <col min="2" max="2" width="15.2" customWidth="1"/>
+    <col min="3" max="3" width="20.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="23.6363636363636" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:4">
       <c r="A1" s="3" t="s">
@@ -1242,11 +1254,15 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.3818181818182" customWidth="1"/>
+    <col min="2" max="2" width="16.4363636363636" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1256,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" ht="17.5" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:2">
+    <row r="3" ht="17.5" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:2">
+    <row r="4" ht="17.5" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:2">
+    <row r="5" ht="17.5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:2">
+    <row r="6" ht="17.5" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>

--- a/List.xlsx
+++ b/List.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Students_Information" sheetId="1" r:id="rId1"/>
+    <sheet name="Teachers_Information" sheetId="2" r:id="rId2"/>
+    <sheet name="Courses_Information" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1136,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1254,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/List.xlsx
+++ b/List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Xuan Yao</t>
+  </si>
+  <si>
+    <t>Yingyue Sha</t>
   </si>
   <si>
     <r>
@@ -1134,13 +1137,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.4363636363636" customWidth="1"/>
     <col min="2" max="2" width="15.0454545454545" customWidth="1"/>
@@ -1188,6 +1191,20 @@
       </c>
       <c r="D3" s="2">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1216,16 +1233,16 @@
   <sheetData>
     <row r="1" ht="16" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1233,7 +1250,7 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1266,15 +1283,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1282,7 +1299,7 @@
     </row>
     <row r="3" ht="17.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1290,7 +1307,7 @@
     </row>
     <row r="4" ht="17.5" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1298,7 +1315,7 @@
     </row>
     <row r="5" ht="17.5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1306,7 +1323,7 @@
     </row>
     <row r="6" ht="17.5" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
